--- a/data analysis/Exercise done/6_Data Fit/Customer Rentention.xlsx
+++ b/data analysis/Exercise done/6_Data Fit/Customer Rentention.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmullen/Data/Classes/IDA8_29_2016/Data Fit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheagraw/Google Drive/training/Data Analysis/Exercise done/6_Data Fit/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C421629-FA81-FD48-8557-41EC168C3FD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="480" windowWidth="27760" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$105</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$105</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$105</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$105</definedName>
+  </definedNames>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -80,8 +87,3207 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.58506842485300692"/>
+                  <c:y val="2.7620570866141732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14060</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17393</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18293</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18956</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19936</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22527</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24092</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25336</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24031</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24689</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25678</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26795</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26821</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27062</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27453</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26606</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28127</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28381</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28079</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29748</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28791</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29936</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30179</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30906</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30627</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30742</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31037</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30975</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30655</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32213</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32332</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31479</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32602</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33231</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31346</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31205</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32296</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30978</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30812</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33225</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33623</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32571</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32742</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33479</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33401</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32904</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32872</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33644</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33429</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33430</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35048</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34210</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34225</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33580</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32283</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33853</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33498</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35391</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33761</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34632</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32907</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B46-C04A-B62A-B8D2502745C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1230633167"/>
+        <c:axId val="1230634847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1230633167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230634847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1230634847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230633167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Exponential</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.50085021372328464"/>
+                  <c:y val="2.1210562965343616E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13277</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14060</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17393</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18293</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18956</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19936</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21204</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22527</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24092</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25336</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24031</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24689</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25216</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25678</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26795</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26821</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27062</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27453</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26606</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28127</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28381</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28079</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29748</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28791</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29936</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30179</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30906</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30627</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30742</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31037</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30975</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30655</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32213</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30970</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32332</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31929</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31479</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32602</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33231</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31346</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31205</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32296</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30978</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30812</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33225</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33623</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32571</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32742</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33479</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33401</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32904</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32964</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>35047</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32872</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33644</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33429</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33430</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35048</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>34210</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34225</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33580</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>32283</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33853</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33498</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35391</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33761</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>34632</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32907</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>34402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB5-3E48-AF98-DAFD0A76E1D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1232111855"/>
+        <c:axId val="1215750623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1232111855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215750623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1215750623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1232111855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BED5B5D-9F65-A345-8E69-BE3022D66482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0084B8AB-87DF-EE43-8519-18B0E85318D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,11 +3552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,5 +4407,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>